--- a/src/main/resources/YatraLoginCredentials.xlsx
+++ b/src/main/resources/YatraLoginCredentials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -32,21 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">Login@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandip@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abc@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranjit@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ganesh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc@123</t>
   </si>
 </sst>
 </file>
@@ -177,10 +162,10 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
   </cols>
@@ -216,36 +201,24 @@
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="G5" s="1"/>
@@ -279,12 +252,6 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="diliprathod32@gmail.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Login@123"/>
-    <hyperlink ref="A3" r:id="rId3" display="sandip@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId4" display="Abc@123"/>
-    <hyperlink ref="A4" r:id="rId5" display="ranjit@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId6" display="Abc@123"/>
-    <hyperlink ref="A5" r:id="rId7" display="ganesh@gmail.com"/>
-    <hyperlink ref="B5" r:id="rId8" display="abc@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/resources/YatraLoginCredentials.xlsx
+++ b/src/main/resources/YatraLoginCredentials.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">Username</t>
+    <t xml:space="preserve">EmalId</t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">diliprathod32@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Login@123</t>
+    <t xml:space="preserve">Abc@123</t>
   </si>
 </sst>
 </file>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -63,6 +63,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -87,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -95,6 +102,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -121,16 +135,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,15 +180,15 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -178,14 +196,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="0"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="0"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="0"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -193,65 +211,65 @@
         <v>3</v>
       </c>
       <c r="C2" s="0"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="0"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="4"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="diliprathod32@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Login@123"/>
+    <hyperlink ref="B2" r:id="rId2" display="Abc@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
